--- a/Data Cleaning/dietOnlyMergedCGM.xlsx
+++ b/Data Cleaning/dietOnlyMergedCGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thushara Piyasekara\Downloads\IIT\Year 2 Semester 2\SDGP Implementaion\Diabuddies_SDGP\Data Cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF837BC-EC5C-4370-A53E-AA684020760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A958C-1973-4A30-9D43-B3246A0F50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="72" windowWidth="22620" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="24" windowWidth="22764" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Merged CGM (mg / dl)</t>
+    <t>CGM (mg / dl) pre-diet</t>
   </si>
   <si>
     <t>Bread 30 g</t>
@@ -13556,12 +13556,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13902,18 +13905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="151.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13950,11 +13948,11 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44189.779166666667</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -14068,11 +14066,11 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44191.768750000003</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
@@ -14082,11 +14080,11 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44192.393750000003</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
@@ -14141,11 +14139,11 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44193.310416666667</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
@@ -14262,11 +14260,11 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44195.529166666667</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
@@ -14276,11 +14274,11 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44195.8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E25" t="s">
@@ -14411,11 +14409,11 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44198.529166666667</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E34" t="s">
